--- a/doc/formatos papel cortado.xlsx
+++ b/doc/formatos papel cortado.xlsx
@@ -141,10 +141,10 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.13"/>
@@ -654,7 +654,7 @@
         <v>44</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>51.5</v>
+        <v>31.5</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>4</v>
@@ -1282,7 +1282,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1305,7 +1305,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
